--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_204.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_204.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,319 +488,359 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_28</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2380952380952381</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(31.46941, 127.006105)]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(46.93228, 55.860352)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:00:24.040000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:01.620158', '0:00:13.055986')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1485507246376812</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0787878787878788</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'C']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1622596153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(37.61, 38.9)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.014172, 15.018072)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:05.130361', '0:00:10.478662')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:03.605464', '0:00:10.966190')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06057692307692308</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09855072463768116</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>[['B', 'C#:min', 'C#:min/b7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[['G', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.824512)]</t>
+          <t>[('0:00:28.938435', '0:00:36.786780')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:01.852358', '0:00:05.126371')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_8</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_75</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0480802252901985</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6']]</t>
-        </is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_32</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2129237288135593</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'F:7', 'Bb:7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>[['G', 'G', 'D:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(49.55, 54.02)]</t>
+          <t>[['G', 'G', 'D:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.42, 20.84)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.440395', '0:00:12.905056')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:11.550000', '0:00:15.790000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_21</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5590062111801242</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38), (18.48, 21.42)]</t>
+          <t>[['C', 'G/3', 'C', 'G/3', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(23.98, 29.42), (235.32, 239.98)]</t>
+          <t>[('0:00:04.605000', '0:00:21.095000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:10.148000', '0:02:12.444000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09583333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'A:min', 'A:min/b7']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb:min', 'Bb:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.852358, 5.126371)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(41.75585, 48.512857)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(33.14, 39.82)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.64, 44.84)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -803,302 +848,308 @@
           <t>schubert-winterreise_91</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>0.1130952380952381</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(57.777619, 61.864331)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.78, 24.04)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(18.0, 26.46)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(102.174263, 111.798209), (105.425056, 115.003287)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(134.84, 137.48), (132.3, 136.56)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2401960784313725</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1322115384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D/3', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab/5', 'Eb']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.016, 22.841)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07387387387387387</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.13, 24.98)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_77</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2214285714285714</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(234.42, 237.9)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(21.840737, 25.47466)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_23</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3794871794871795</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(66.1, 84.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(29.02, 40.82)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
